--- a/配置管理/0514/项目基线计划及跟踪表.xlsx
+++ b/配置管理/0514/项目基线计划及跟踪表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -119,30 +119,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2015.04.08</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王晶清</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗新云</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.04.01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.04.05</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.04.10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>系统设计</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -248,14 +224,46 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈文聪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨峻欢</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨峻欢</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈文聪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.08</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +562,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -567,36 +605,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -614,7 +622,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -688,6 +696,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -722,6 +731,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -897,14 +907,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="3" width="18.125" customWidth="1"/>
@@ -916,15 +926,15 @@
     <col min="9" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
@@ -940,41 +950,41 @@
       <c r="I1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
-      <c r="J2" s="33"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="1:10" ht="29.25" thickBot="1">
+      <c r="B3" s="29"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
@@ -994,87 +1004,87 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.25" thickBot="1">
+    <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="6" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="17.25" thickBot="1">
+    <row r="6" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="6" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="17.25" thickBot="1">
+    <row r="7" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="14" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="17.25" thickBot="1">
+    <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="14" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="17.25" thickBot="1">
+    <row r="9" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1082,7 +1092,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="17.25" thickBot="1">
+    <row r="10" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
         <v>18</v>
@@ -1100,19 +1110,19 @@
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="17.25" thickBot="1">
+    <row r="11" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1120,49 +1130,49 @@
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="17.25" thickBot="1">
+    <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="9"/>
       <c r="D12" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="17.25" thickBot="1">
+    <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="20"/>
       <c r="C13" s="9"/>
       <c r="D13" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="14" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>42</v>
+      <c r="C14" s="36" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>21</v>
@@ -1176,33 +1186,33 @@
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="15" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="16" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>21</v>
@@ -1216,15 +1226,15 @@
       <c r="I16" s="6"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" ht="17.25" thickBot="1">
+    <row r="17" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>21</v>
@@ -1232,75 +1242,75 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+    <row r="18" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="17.25" thickBot="1">
+    <row r="19" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="17.25" thickBot="1">
+    <row r="20" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="17.25" thickBot="1">
+    <row r="21" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1308,32 +1318,32 @@
         <v>30</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:10" ht="17.25" thickBot="1">
+    <row r="22" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -1342,18 +1352,11 @@
       <c r="I22" s="12"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B4:D4"/>
@@ -1362,6 +1365,13 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1370,12 +1380,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1383,12 +1393,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
